--- a/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>287207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262817</v>
+        <v>264816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301183</v>
+        <v>302777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8922146004579212</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8164450122923684</v>
+        <v>0.8226551224098668</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9356286646410061</v>
+        <v>0.9405817675875524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>719</v>
@@ -762,19 +762,19 @@
         <v>375401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>360643</v>
+        <v>358672</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>390095</v>
+        <v>389527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8234944612205948</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7911200773216681</v>
+        <v>0.7867953273666504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8557258417563739</v>
+        <v>0.854479990989645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1092</v>
@@ -783,19 +783,19 @@
         <v>662609</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>637485</v>
+        <v>637634</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>683283</v>
+        <v>684099</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.851936458892099</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8196338427557777</v>
+        <v>0.8198256430520311</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8785181245618676</v>
+        <v>0.8795674298447268</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>34697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20721</v>
+        <v>19127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59087</v>
+        <v>57088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1077853995420788</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06437133535899389</v>
+        <v>0.05941823241244764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1835549877076317</v>
+        <v>0.1773448775901334</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -833,19 +833,19 @@
         <v>80463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65769</v>
+        <v>66337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95221</v>
+        <v>97192</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1765055387794052</v>
+        <v>0.1765055387794051</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.144274158243626</v>
+        <v>0.1455200090103551</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2088799226783317</v>
+        <v>0.2132046726333492</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -854,19 +854,19 @@
         <v>115159</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94485</v>
+        <v>93669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140283</v>
+        <v>140134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1480635411079009</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1214818754381323</v>
+        <v>0.1204325701552733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1803661572442224</v>
+        <v>0.1801743569479692</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>350658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>323427</v>
+        <v>327171</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>369216</v>
+        <v>369388</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.832791104225194</v>
+        <v>0.8327911042251939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7681208114559894</v>
+        <v>0.7770129608881244</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8768669298081492</v>
+        <v>0.87727379526066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>763</v>
@@ -979,19 +979,19 @@
         <v>482210</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>457786</v>
+        <v>460908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>502838</v>
+        <v>504721</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7691993921408214</v>
+        <v>0.7691993921408217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.730238915857748</v>
+        <v>0.7352185033295286</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8021031624476187</v>
+        <v>0.8051069060339128</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1159</v>
@@ -1000,19 +1000,19 @@
         <v>832868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>800412</v>
+        <v>800357</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>862922</v>
+        <v>864140</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7947500672521616</v>
+        <v>0.7947500672521614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7637800742781594</v>
+        <v>0.7637269122744508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8234289559459695</v>
+        <v>0.8245907479811229</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>70405</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51847</v>
+        <v>51675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97636</v>
+        <v>93892</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1672088957748059</v>
+        <v>0.167208895774806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1231330701918512</v>
+        <v>0.1227262047393401</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2318791885440105</v>
+        <v>0.2229870391118766</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>159</v>
@@ -1050,19 +1050,19 @@
         <v>144689</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>124061</v>
+        <v>122178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>169113</v>
+        <v>165991</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2308006078591784</v>
+        <v>0.2308006078591785</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1978968375523813</v>
+        <v>0.1948930939660869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2697610841422518</v>
+        <v>0.264781496670471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>197</v>
@@ -1071,19 +1071,19 @@
         <v>215094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>185040</v>
+        <v>183822</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>247550</v>
+        <v>247605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2052499327478385</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1765710440540306</v>
+        <v>0.1754092520188772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2362199257218417</v>
+        <v>0.236273087725549</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>327557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>301129</v>
+        <v>303367</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>346037</v>
+        <v>345897</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8518326823359805</v>
+        <v>0.8518326823359804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7831043055027226</v>
+        <v>0.788926438085839</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8998923028985432</v>
+        <v>0.899528363619195</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>498</v>
@@ -1196,19 +1196,19 @@
         <v>351947</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>329899</v>
+        <v>326919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>370575</v>
+        <v>370137</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7362120125721224</v>
+        <v>0.7362120125721225</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6900912983892419</v>
+        <v>0.6838587986836537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7751780318386762</v>
+        <v>0.7742623974596473</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>822</v>
@@ -1217,19 +1217,19 @@
         <v>679503</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>645564</v>
+        <v>649906</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>710574</v>
+        <v>711809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7877547076393598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7484093950069629</v>
+        <v>0.7534420111300678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8237751106815512</v>
+        <v>0.8252073526839458</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>56975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38495</v>
+        <v>38635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83403</v>
+        <v>81165</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1481673176640195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1001076971014569</v>
+        <v>0.1004716363808052</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2168956944972774</v>
+        <v>0.211073561914161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -1267,19 +1267,19 @@
         <v>126104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107476</v>
+        <v>107914</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148152</v>
+        <v>151132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2637879874278775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2248219681613238</v>
+        <v>0.2257376025403526</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3099087016107581</v>
+        <v>0.3161412013163458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -1288,19 +1288,19 @@
         <v>183079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>152008</v>
+        <v>150773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>217018</v>
+        <v>212676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2122452923606404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.176224889318449</v>
+        <v>0.174792647316054</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2515906049930375</v>
+        <v>0.2465579888699321</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>396056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>371570</v>
+        <v>373027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>417516</v>
+        <v>417588</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8555401005279846</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8026459768508079</v>
+        <v>0.8057936287988329</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9018967546942096</v>
+        <v>0.9020521032912373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>769</v>
@@ -1413,19 +1413,19 @@
         <v>495266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>468026</v>
+        <v>471737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>517822</v>
+        <v>517177</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7415677269185835</v>
+        <v>0.7415677269185834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7007821410453261</v>
+        <v>0.7063373397324665</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.775342049563037</v>
+        <v>0.7743758691124096</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1258</v>
@@ -1434,19 +1434,19 @@
         <v>891322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>857614</v>
+        <v>857302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>920988</v>
+        <v>919596</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7882264059235695</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7584172076179716</v>
+        <v>0.7581411977145385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8144610847509071</v>
+        <v>0.813230583601916</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>66875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45415</v>
+        <v>45343</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91361</v>
+        <v>89904</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1444598994720153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09810324530579037</v>
+        <v>0.09794789670876268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.197354023149192</v>
+        <v>0.1942063712011671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -1484,19 +1484,19 @@
         <v>172597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150041</v>
+        <v>150686</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199837</v>
+        <v>196126</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2584322730814166</v>
+        <v>0.2584322730814165</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2246579504369631</v>
+        <v>0.2256241308875903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.299217858954674</v>
+        <v>0.2936626602675336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1505,19 +1505,19 @@
         <v>239472</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>209806</v>
+        <v>211198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>273180</v>
+        <v>273492</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2117735940764304</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1855389152490929</v>
+        <v>0.1867694163980837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2415827923820281</v>
+        <v>0.2418588022854611</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>1361478</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1317399</v>
+        <v>1315105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1403178</v>
+        <v>1402278</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8560439109786249</v>
+        <v>0.856043910978625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.82832889431629</v>
+        <v>0.8268864807070287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8822633300594558</v>
+        <v>0.8816971427279654</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2749</v>
@@ -1630,19 +1630,19 @@
         <v>1704824</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1666162</v>
+        <v>1660385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1748729</v>
+        <v>1743620</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7649490569367212</v>
+        <v>0.7649490569367213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7476017019787169</v>
+        <v>0.7450095357935357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7846493198523155</v>
+        <v>0.7823568478048022</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4331</v>
@@ -1651,19 +1651,19 @@
         <v>3066302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3005159</v>
+        <v>3009035</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3119360</v>
+        <v>3126619</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8028846296166554</v>
+        <v>0.8028846296166555</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7868749233761859</v>
+        <v>0.7878898394284281</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8167774255038026</v>
+        <v>0.8186783611274269</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>228952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187252</v>
+        <v>188152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>273031</v>
+        <v>275325</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1439560890213752</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1177366699405442</v>
+        <v>0.1183028572720348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.17167110568371</v>
+        <v>0.1731135192929713</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>596</v>
@@ -1701,19 +1701,19 @@
         <v>523852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>479947</v>
+        <v>485056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>562514</v>
+        <v>568291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2350509430632788</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2153506801476844</v>
+        <v>0.2176431521951977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2523982980212833</v>
+        <v>0.2549904642064643</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>707</v>
@@ -1722,19 +1722,19 @@
         <v>752804</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>699746</v>
+        <v>692487</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>813947</v>
+        <v>810071</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1971153703833444</v>
+        <v>0.1971153703833445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1832225744961978</v>
+        <v>0.1813216388725731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2131250766238144</v>
+        <v>0.2121101605715718</v>
       </c>
     </row>
     <row r="18">
